--- a/internal_flop_setup_PVT_tx_fifo_read_flop_reset_post_new_pdk_tsmc2p_meas.xlsx
+++ b/internal_flop_setup_PVT_tx_fifo_read_flop_reset_post_new_pdk_tsmc2p_meas.xlsx
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>25.0366</v>
+        <v>25.0487</v>
       </c>
       <c r="O2">
-        <v>23.8831</v>
+        <v>23.8819</v>
       </c>
       <c r="P2">
-        <v>16.4191</v>
+        <v>16.4151</v>
       </c>
       <c r="Q2">
-        <v>14.1989</v>
+        <v>14.2032</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -781,16 +781,16 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>25.3116</v>
+        <v>25.3227</v>
       </c>
       <c r="O3">
-        <v>23.9597</v>
+        <v>23.9579</v>
       </c>
       <c r="P3">
-        <v>15.8232</v>
+        <v>15.8248</v>
       </c>
       <c r="Q3">
-        <v>13.5807</v>
+        <v>13.5876</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -834,16 +834,16 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>24.1464</v>
+        <v>24.1576</v>
       </c>
       <c r="O4">
-        <v>23.4963</v>
+        <v>23.496</v>
       </c>
       <c r="P4">
-        <v>17.1355</v>
+        <v>17.1339</v>
       </c>
       <c r="Q4">
-        <v>14.9939</v>
+        <v>14.991</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -887,16 +887,16 @@
         <v>1</v>
       </c>
       <c r="N5" s="2">
-        <v>41.0414</v>
+        <v>41.072</v>
       </c>
       <c r="O5">
-        <v>37.2844</v>
+        <v>37.28530000000001</v>
       </c>
       <c r="P5" s="2">
-        <v>23.5926</v>
+        <v>23.587</v>
       </c>
       <c r="Q5">
-        <v>19.6348</v>
+        <v>19.639</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -940,16 +940,16 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>36.315</v>
+        <v>36.3425</v>
       </c>
       <c r="O6">
-        <v>34.2525</v>
+        <v>34.2553</v>
       </c>
       <c r="P6" s="2">
-        <v>23.9511</v>
+        <v>23.9589</v>
       </c>
       <c r="Q6" s="3">
-        <v>20.5523</v>
+        <v>20.55</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -993,16 +993,16 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>28.0477</v>
+        <v>28.0626</v>
       </c>
       <c r="O7">
-        <v>26.63</v>
+        <v>26.6304</v>
       </c>
       <c r="P7">
-        <v>17.1237</v>
+        <v>17.1194</v>
       </c>
       <c r="Q7">
-        <v>14.6197</v>
+        <v>14.6167</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1046,16 +1046,16 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>26.831</v>
+        <v>26.8457</v>
       </c>
       <c r="O8">
-        <v>25.9905</v>
+        <v>25.9931</v>
       </c>
       <c r="P8">
-        <v>18.3736</v>
+        <v>18.3923</v>
       </c>
       <c r="Q8">
-        <v>16.0447</v>
+        <v>16.0483</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1099,16 +1099,16 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>22.62</v>
+        <v>22.6642</v>
       </c>
       <c r="O9">
-        <v>21.4712</v>
+        <v>21.5016</v>
       </c>
       <c r="P9">
-        <v>14.5625</v>
+        <v>14.5859</v>
       </c>
       <c r="Q9">
-        <v>12.5271</v>
+        <v>12.5332</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1152,16 +1152,16 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>21.6608</v>
+        <v>21.7044</v>
       </c>
       <c r="O10">
-        <v>21.2386</v>
+        <v>21.2671</v>
       </c>
       <c r="P10">
-        <v>16.0568</v>
+        <v>16.091</v>
       </c>
       <c r="Q10">
-        <v>14.0667</v>
+        <v>14.08</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1205,16 +1205,16 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>18.2551</v>
+        <v>18.2894</v>
       </c>
       <c r="O11">
-        <v>17.6013</v>
+        <v>17.6208</v>
       </c>
       <c r="P11">
-        <v>12.3592</v>
+        <v>12.3698</v>
       </c>
       <c r="Q11">
-        <v>10.5694</v>
+        <v>10.583</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1258,16 +1258,16 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <v>18.424</v>
+        <v>18.4586</v>
       </c>
       <c r="O12">
-        <v>18.2078</v>
+        <v>18.2306</v>
       </c>
       <c r="P12">
-        <v>14.0142</v>
+        <v>14.0358</v>
       </c>
       <c r="Q12">
-        <v>12.2247</v>
+        <v>12.2394</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1311,16 +1311,16 @@
         <v>1</v>
       </c>
       <c r="N13">
-        <v>25.8251</v>
+        <v>30.3191</v>
       </c>
       <c r="O13">
-        <v>27.4144</v>
+        <v>30.9016</v>
       </c>
       <c r="P13">
-        <v>15.8678</v>
+        <v>17.7937</v>
       </c>
       <c r="Q13">
-        <v>15.5789</v>
+        <v>17.0838</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1364,16 +1364,16 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <v>24.3565</v>
+        <v>27.4276</v>
       </c>
       <c r="O14">
-        <v>27.3699</v>
+        <v>29.875</v>
       </c>
       <c r="P14">
-        <v>16.878</v>
+        <v>18.3064</v>
       </c>
       <c r="Q14">
-        <v>17.2831</v>
+        <v>18.3988</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1417,16 +1417,16 @@
         <v>1</v>
       </c>
       <c r="N15">
-        <v>20.5344</v>
+        <v>22.7436</v>
       </c>
       <c r="O15">
-        <v>21.9931</v>
+        <v>23.7166</v>
       </c>
       <c r="P15">
-        <v>13.0808</v>
+        <v>13.9398</v>
       </c>
       <c r="Q15">
-        <v>12.662</v>
+        <v>13.3207</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="N16">
-        <v>20.5307</v>
+        <v>22.1772</v>
       </c>
       <c r="O16">
-        <v>22.8878</v>
+        <v>24.2232</v>
       </c>
       <c r="P16">
-        <v>14.4899</v>
+        <v>15.1272</v>
       </c>
       <c r="Q16">
-        <v>14.5305</v>
+        <v>14.9686</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1523,16 +1523,16 @@
         <v>1</v>
       </c>
       <c r="N17">
-        <v>26.1384</v>
+        <v>30.3549</v>
       </c>
       <c r="O17">
-        <v>22.1234</v>
-      </c>
-      <c r="P17">
-        <v>18.1049</v>
+        <v>25.9357</v>
+      </c>
+      <c r="P17" s="3">
+        <v>20.1663</v>
       </c>
       <c r="Q17">
-        <v>13.9542</v>
+        <v>15.3286</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1576,16 +1576,16 @@
         <v>1</v>
       </c>
       <c r="N18">
-        <v>24.9911</v>
+        <v>28.2306</v>
       </c>
       <c r="O18">
-        <v>21.1428</v>
-      </c>
-      <c r="P18">
-        <v>19.6318</v>
+        <v>23.8514</v>
+      </c>
+      <c r="P18" s="3">
+        <v>21.0713</v>
       </c>
       <c r="Q18">
-        <v>15.1683</v>
+        <v>16.29</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1629,16 +1629,16 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <v>20.4502</v>
+        <v>22.6774</v>
       </c>
       <c r="O19">
-        <v>17.6222</v>
+        <v>19.6108</v>
       </c>
       <c r="P19">
-        <v>14.8913</v>
+        <v>15.7196</v>
       </c>
       <c r="Q19">
-        <v>11.6736</v>
+        <v>12.334</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1682,16 +1682,16 @@
         <v>1</v>
       </c>
       <c r="N20">
-        <v>20.5835</v>
+        <v>22.3787</v>
       </c>
       <c r="O20">
-        <v>17.8529</v>
+        <v>19.3647</v>
       </c>
       <c r="P20">
-        <v>16.7379</v>
+        <v>17.3374</v>
       </c>
       <c r="Q20">
-        <v>13.1009</v>
+        <v>13.6021</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1">
@@ -1758,16 +1758,16 @@
         <v>1</v>
       </c>
       <c r="N22" s="1">
-        <v>18.2551</v>
+        <v>18.2894</v>
       </c>
       <c r="O22" s="1">
-        <v>17.6013</v>
+        <v>17.6208</v>
       </c>
       <c r="P22" s="1">
-        <v>12.3592</v>
+        <v>12.3698</v>
       </c>
       <c r="Q22" s="1">
-        <v>10.5694</v>
+        <v>10.583</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1">
@@ -1781,16 +1781,16 @@
         <v>1</v>
       </c>
       <c r="N23" s="2">
-        <v>41.0414</v>
+        <v>41.072</v>
       </c>
       <c r="O23" s="1">
-        <v>37.2844</v>
+        <v>37.28530000000001</v>
       </c>
       <c r="P23" s="2">
-        <v>23.9511</v>
+        <v>23.9589</v>
       </c>
       <c r="Q23" s="3">
-        <v>20.5523</v>
+        <v>20.55</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1">
@@ -1890,16 +1890,16 @@
         <v>1</v>
       </c>
       <c r="N28" s="1">
-        <v>24.79471052631579</v>
+        <v>26.01460526315789</v>
       </c>
       <c r="O28" s="1">
-        <v>23.81167894736842</v>
+        <v>24.821</v>
       </c>
       <c r="P28" s="1">
-        <v>16.79441578947369</v>
+        <v>17.31450526315789</v>
       </c>
       <c r="Q28" s="1">
-        <v>14.57707368421053</v>
+        <v>14.96831578947368</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1">
@@ -1913,16 +1913,16 @@
         <v>0</v>
       </c>
       <c r="N29" s="1">
-        <v>5.553986304580535</v>
+        <v>5.542974400035236</v>
       </c>
       <c r="O29" s="1">
-        <v>5.124778219034813</v>
+        <v>5.101669682719467</v>
       </c>
       <c r="P29" s="1">
-        <v>2.969342591119271</v>
+        <v>3.026825928170628</v>
       </c>
       <c r="Q29" s="1">
-        <v>2.451099128713721</v>
+        <v>2.510929836002918</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1">
@@ -1936,16 +1936,16 @@
         <v>0</v>
       </c>
       <c r="N30" s="1">
-        <v>22.39988363117137</v>
+        <v>21.30716320299215</v>
       </c>
       <c r="O30" s="1">
-        <v>21.52212042822451</v>
+        <v>20.55384425574903</v>
       </c>
       <c r="P30" s="1">
-        <v>17.68053517515256</v>
+        <v>17.481446233472</v>
       </c>
       <c r="Q30" s="1">
-        <v>16.81475433144501</v>
+        <v>16.77496567629007</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1"/>
